--- a/nodes_source_analyses/energy/energy/energy_chp_combined_cycle_network_gas.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_chp_combined_cycle_network_gas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/nodes_source_analyses/energy/energy/AAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5625E5-F410-2742-BE45-EF84474D6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E3EF0F-54B4-3443-BDE8-01FBBBCEDD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16880" yWindow="7960" windowWidth="27660" windowHeight="17500" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="152">
   <si>
     <t>Source</t>
   </si>
@@ -144,9 +144,6 @@
     <t xml:space="preserve">Decmmmissioning cost </t>
   </si>
   <si>
-    <t>Electricity output capacity</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
   </si>
   <si>
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
-  </si>
-  <si>
-    <t>Heat output capacity</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -693,6 +687,12 @@
   </si>
   <si>
     <t>output.electricity</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>Input capacity</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1478,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1758,6 +1758,10 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="247">
@@ -2643,12 +2647,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="17"/>
+    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="23" customFormat="1">
@@ -2674,16 +2678,16 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2708,7 +2712,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="103" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="104"/>
     </row>
@@ -2720,31 +2724,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="105" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="105"/>
       <c r="C12" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="105"/>
       <c r="C13" s="108" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="105"/>
       <c r="C14" s="106" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2755,58 +2759,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="105" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="105"/>
       <c r="C17" s="110" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="105"/>
       <c r="C18" s="111" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="105"/>
       <c r="C19" s="112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="113"/>
       <c r="C21" s="115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="113"/>
       <c r="C22" s="116" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="113"/>
       <c r="C23" s="117" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2820,25 +2824,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="32" customWidth="1"/>
     <col min="3" max="3" width="46" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="32" customWidth="1"/>
     <col min="7" max="7" width="45" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="60.140625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="32"/>
+    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="60.1640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2849,7 +2853,7 @@
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
       <c r="B2" s="164" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="165"/>
       <c r="D2" s="165"/>
@@ -2890,7 +2894,7 @@
     <row r="7" spans="2:11" s="39" customFormat="1" ht="19">
       <c r="B7" s="118"/>
       <c r="C7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="119" t="s">
         <v>14</v>
@@ -2922,7 +2926,7 @@
     <row r="9" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="14"/>
@@ -2935,7 +2939,7 @@
     <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="35"/>
       <c r="C10" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>5</v>
@@ -2947,7 +2951,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="126"/>
       <c r="K10" s="30"/>
@@ -2955,7 +2959,7 @@
     <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="35"/>
       <c r="C11" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>5</v>
@@ -2967,58 +2971,49 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="126"/>
       <c r="K11" s="30"/>
     </row>
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="35"/>
-      <c r="C12" s="31" t="s">
-        <v>38</v>
+      <c r="C12" s="166" t="s">
+        <v>150</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="42">
         <f>'Research data'!G8</f>
-        <v>120</v>
+        <v>260.89999999999998</v>
       </c>
       <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
-        <v>28</v>
+      <c r="G12" s="166" t="s">
+        <v>151</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="161" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" s="126"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1">
+    <row r="13" spans="2:11">
       <c r="B13" s="35"/>
-      <c r="C13" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="42">
-        <f>'Research data'!G9</f>
-        <v>109.56521739130434</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="161" t="s">
-        <v>132</v>
-      </c>
+      <c r="C13" s="88"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="126"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="35"/>
-      <c r="C14" s="88"/>
+      <c r="C14" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="D14" s="121"/>
       <c r="E14" s="122"/>
       <c r="F14" s="30"/>
@@ -3029,15 +3024,24 @@
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="35"/>
-      <c r="C15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="C15" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="42">
+        <f>'Research data'!G18</f>
+        <v>115043478.26000001</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="102" t="s">
+        <v>103</v>
+      </c>
       <c r="J15" s="126"/>
     </row>
     <row r="16" spans="2:11" ht="17" thickBot="1">
@@ -3046,61 +3050,60 @@
         <v>40</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="42">
-        <f>'Research data'!G17</f>
-        <v>115043478.26000001</v>
+        <v>0</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="H16" s="31"/>
-      <c r="I16" s="102" t="s">
-        <v>105</v>
+      <c r="I16" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="J16" s="126"/>
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="35"/>
       <c r="C17" s="31" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="42">
         <v>0</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="126"/>
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="35"/>
       <c r="C18" s="31" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="E18" s="42">
         <v>0</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="126"/>
     </row>
@@ -3110,18 +3113,19 @@
         <v>42</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="42">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="E19" s="120">
+        <f>'Research data'!G21</f>
+        <v>1095652.17</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H19" s="31"/>
-      <c r="I19" s="29" t="s">
-        <v>51</v>
+      <c r="I19" s="102" t="s">
+        <v>102</v>
       </c>
       <c r="J19" s="126"/>
     </row>
@@ -3131,19 +3135,19 @@
         <v>43</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="120">
-        <f>'Research data'!G20</f>
-        <v>1095652.17</v>
+        <v>48</v>
+      </c>
+      <c r="E20" s="41">
+        <f>'Research data'!G24</f>
+        <v>328.7</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J20" s="126"/>
     </row>
@@ -3153,126 +3157,126 @@
         <v>44</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="41">
-        <f>'Research data'!G23</f>
-        <v>328.7</v>
+        <v>48</v>
+      </c>
+      <c r="E21" s="123">
+        <v>0</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="31"/>
-      <c r="I21" s="102" t="s">
-        <v>104</v>
+      <c r="I21" s="138" t="s">
+        <v>50</v>
       </c>
       <c r="J21" s="126"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="35"/>
       <c r="C22" s="31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="123">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E22" s="42">
+        <v>0.04</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H22" s="31"/>
-      <c r="I22" s="138" t="s">
-        <v>51</v>
+      <c r="I22" s="159" t="s">
+        <v>147</v>
       </c>
       <c r="J22" s="126"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="35"/>
       <c r="C23" s="31" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E23" s="42">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="F23" s="31"/>
-      <c r="G23" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="G23" s="31"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="159" t="s">
-        <v>149</v>
+      <c r="I23" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="J23" s="126"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1">
+    <row r="24" spans="2:10">
       <c r="B24" s="35"/>
-      <c r="C24" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="42">
-        <v>1</v>
-      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
-      <c r="I24" s="29" t="s">
-        <v>51</v>
-      </c>
+      <c r="I24" s="30"/>
       <c r="J24" s="126"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="35"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="121"/>
       <c r="E25" s="124"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="126"/>
     </row>
     <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="35"/>
-      <c r="C26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="C26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="42">
+        <f>'Research data'!G13</f>
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="J26" s="126"/>
     </row>
     <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="35"/>
       <c r="C27" s="31" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="42">
-        <f>'Research data'!G12</f>
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="120">
+        <f>'Research data'!G14</f>
+        <v>2.5</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H27" s="31"/>
-      <c r="I27" s="29" t="s">
-        <v>64</v>
+      <c r="I27" s="145" t="s">
+        <v>129</v>
       </c>
       <c r="J27" s="126"/>
     </row>
@@ -3284,71 +3288,49 @@
       <c r="D28" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="120">
-        <f>'Research data'!G13</f>
-        <v>2.5</v>
+      <c r="E28" s="42">
+        <f>'Research data'!G15</f>
+        <v>30</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="31"/>
-      <c r="I28" s="145" t="s">
-        <v>131</v>
+      <c r="I28" s="146" t="s">
+        <v>129</v>
       </c>
       <c r="J28" s="126"/>
     </row>
     <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="35"/>
       <c r="C29" s="31" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" s="42">
-        <f>'Research data'!G14</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F29" s="31"/>
-      <c r="G29" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="31"/>
-      <c r="I29" s="146" t="s">
-        <v>131</v>
+      <c r="I29" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="J29" s="126"/>
     </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1">
-      <c r="B30" s="35"/>
-      <c r="C30" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="42">
-        <v>0</v>
-      </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="126"/>
-    </row>
-    <row r="31" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+    <row r="30" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3364,31 +3346,31 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:Q28"/>
+  <dimension ref="B1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="68" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="68" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="68" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="68" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="68" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="68" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="69" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="69" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="68" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="68" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="68" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="68" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="68" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="68" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="69" customWidth="1"/>
     <col min="11" max="11" width="9" style="69" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="69" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="69" customWidth="1"/>
-    <col min="14" max="14" width="3.28515625" style="69" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="69" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="69" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" style="69" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="69" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" style="69" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="69" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="69" customWidth="1"/>
     <col min="17" max="17" width="114" style="68" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="68"/>
+    <col min="18" max="16384" width="10.6640625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1"/>
@@ -3413,7 +3395,7 @@
     <row r="3" spans="2:17" s="20" customFormat="1">
       <c r="B3" s="19"/>
       <c r="C3" s="135" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3421,27 +3403,27 @@
         <v>14</v>
       </c>
       <c r="G3" s="135" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3" s="135"/>
       <c r="I3" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="135" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:17">
@@ -3465,7 +3447,7 @@
     <row r="5" spans="2:17" ht="17" thickBot="1">
       <c r="B5" s="73"/>
       <c r="C5" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -3485,7 +3467,7 @@
     <row r="6" spans="2:17" ht="17" thickBot="1">
       <c r="B6" s="73"/>
       <c r="C6" s="67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -3511,7 +3493,7 @@
     <row r="7" spans="2:17" ht="17" thickBot="1">
       <c r="B7" s="73"/>
       <c r="C7" s="67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -3536,25 +3518,20 @@
     </row>
     <row r="8" spans="2:17" ht="17" thickBot="1">
       <c r="B8" s="73"/>
-      <c r="C8" s="31" t="s">
-        <v>38</v>
+      <c r="C8" s="67" t="s">
+        <v>150</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="162" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="80">
-        <f>I8</f>
-        <v>120</v>
+      <c r="F8" s="27"/>
+      <c r="G8" s="163">
+        <f>ROUND(G9/K6,1)</f>
+        <v>260.89999999999998</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="80">
-        <f>Notes!D21</f>
-        <v>120</v>
-      </c>
+      <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="167"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -3565,315 +3542,317 @@
     <row r="9" spans="2:17" ht="17" thickBot="1">
       <c r="B9" s="73"/>
       <c r="C9" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="162" t="s">
+        <v>59</v>
       </c>
       <c r="G9" s="80">
         <f>I9</f>
+        <v>120</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="80">
+        <f>Notes!D21</f>
+        <v>120</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="66"/>
+    </row>
+    <row r="10" spans="2:17" ht="17" thickBot="1">
+      <c r="B10" s="73"/>
+      <c r="C10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="80">
+        <f>I10</f>
         <v>109.56521739130434</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80">
+      <c r="H10" s="79"/>
+      <c r="I10" s="80">
         <f>Notes!D72</f>
         <v>109.56521739130434</v>
       </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="Q9" s="66"/>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="73"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="81"/>
-      <c r="Q10" s="136"/>
-    </row>
-    <row r="11" spans="2:17" ht="17" thickBot="1">
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="Q10" s="66"/>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="73"/>
-      <c r="C11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
       <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="136"/>
     </row>
     <row r="12" spans="2:17" ht="17" thickBot="1">
       <c r="B12" s="73"/>
-      <c r="C12" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="77" t="s">
+      <c r="C12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="2:17" ht="17" thickBot="1">
+      <c r="B13" s="73"/>
+      <c r="C13" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G13" s="90">
         <f>ROUND(0.1,1)</f>
         <v>0.1</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="86">
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="86">
         <f>428*303/1000000</f>
         <v>0.12968399999999999</v>
       </c>
-      <c r="Q12" s="134" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="17" thickBot="1">
-      <c r="B13" s="73"/>
-      <c r="C13" s="89" t="s">
+      <c r="Q13" s="134" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="17" thickBot="1">
+      <c r="B14" s="73"/>
+      <c r="C14" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="77" t="s">
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G14" s="90">
         <f>ROUND(2.5,1)</f>
         <v>2.5</v>
-      </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="78">
-        <f>Notes!D55/12</f>
-        <v>2.5</v>
-      </c>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="17" thickBot="1">
-      <c r="B14" s="73"/>
-      <c r="C14" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="93">
-        <f>ROUND(30,0)</f>
-        <v>30</v>
       </c>
       <c r="H14" s="84"/>
       <c r="I14" s="85"/>
       <c r="J14" s="85"/>
       <c r="K14" s="85"/>
       <c r="L14" s="85"/>
-      <c r="M14" s="80">
-        <f>Notes!D56</f>
+      <c r="M14" s="78">
+        <f>Notes!D55/12</f>
+        <v>2.5</v>
+      </c>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="17" thickBot="1">
+      <c r="B15" s="73"/>
+      <c r="C15" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="93">
+        <f>ROUND(30,0)</f>
         <v>30</v>
       </c>
-      <c r="N14" s="85"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="66"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="73"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="85"/>
       <c r="J15" s="85"/>
       <c r="K15" s="85"/>
       <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
+      <c r="M15" s="80">
+        <f>Notes!D56</f>
+        <v>30</v>
+      </c>
       <c r="N15" s="85"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
       <c r="Q15" s="66"/>
     </row>
-    <row r="16" spans="2:17" ht="17" thickBot="1">
+    <row r="16" spans="2:17">
       <c r="B16" s="73"/>
-      <c r="C16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
       <c r="Q16" s="66"/>
     </row>
     <row r="17" spans="2:17" ht="17" thickBot="1">
       <c r="B17" s="73"/>
-      <c r="C17" s="127" t="s">
-        <v>92</v>
+      <c r="C17" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="90">
-        <f>ROUND(G18*G9*1000,2)</f>
-        <v>115043478.26000001</v>
-      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="81"/>
       <c r="P17" s="81"/>
       <c r="Q17" s="66"/>
     </row>
     <row r="18" spans="2:17" ht="17" thickBot="1">
       <c r="B18" s="73"/>
-      <c r="C18" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="128" t="s">
-        <v>89</v>
+      <c r="C18" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="127" t="s">
+        <v>31</v>
       </c>
       <c r="G18" s="90">
-        <v>1050</v>
-      </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="98">
-        <f>Notes!$D$22</f>
-        <v>1050</v>
-      </c>
+        <f>ROUND(G19*G10*1000,2)</f>
+        <v>115043478.26000001</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="84"/>
       <c r="J18" s="84"/>
-      <c r="K18" s="98">
-        <f>Notes!D80</f>
-        <v>1000</v>
-      </c>
+      <c r="K18" s="84"/>
       <c r="L18" s="84"/>
       <c r="M18" s="84"/>
       <c r="N18" s="84"/>
       <c r="O18" s="81"/>
       <c r="P18" s="81"/>
-      <c r="Q18" s="67" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q18" s="66"/>
     </row>
     <row r="19" spans="2:17" ht="17" thickBot="1">
       <c r="B19" s="73"/>
-      <c r="C19" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="101">
-        <f>G20+G22</f>
-        <v>2574802.17</v>
-      </c>
-      <c r="H19" s="12"/>
+      <c r="C19" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="90">
+        <v>1050</v>
+      </c>
+      <c r="H19" s="84"/>
       <c r="I19" s="98">
-        <f>Notes!$D$42</f>
-        <v>2520000</v>
+        <f>Notes!$D$22</f>
+        <v>1050</v>
       </c>
       <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
+      <c r="K19" s="98">
+        <f>Notes!D80</f>
+        <v>1000</v>
+      </c>
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
       <c r="N19" s="84"/>
       <c r="O19" s="81"/>
       <c r="P19" s="81"/>
-      <c r="Q19" s="67"/>
+      <c r="Q19" s="67" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" spans="2:17" ht="17" thickBot="1">
       <c r="B20" s="73"/>
       <c r="C20" s="139" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="95">
-        <f>ROUND(G21*G9*1000,2)</f>
-        <v>1095652.17</v>
+        <v>31</v>
+      </c>
+      <c r="G20" s="101">
+        <f>G21+G23</f>
+        <v>2574802.17</v>
       </c>
       <c r="H20" s="12"/>
-      <c r="I20" s="84"/>
+      <c r="I20" s="98">
+        <f>Notes!$D$42</f>
+        <v>2520000</v>
+      </c>
       <c r="J20" s="84"/>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
       <c r="M20" s="84"/>
       <c r="N20" s="84"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="67" t="s">
-        <v>110</v>
-      </c>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="67"/>
     </row>
     <row r="21" spans="2:17" ht="17" thickBot="1">
       <c r="B21" s="73"/>
-      <c r="C21" s="127" t="s">
-        <v>95</v>
+      <c r="C21" s="139" t="s">
+        <v>92</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="144">
-        <v>10</v>
+      <c r="F21" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="95">
+        <f>ROUND(G22*G10*1000,2)</f>
+        <v>1095652.17</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="84"/>
@@ -3884,23 +3863,22 @@
       <c r="N21" s="84"/>
       <c r="O21" s="91"/>
       <c r="P21" s="84"/>
-      <c r="Q21" s="28" t="s">
-        <v>111</v>
+      <c r="Q21" s="67" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="17" thickBot="1">
       <c r="B22" s="73"/>
       <c r="C22" s="127" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="95">
-        <f>G23*G25</f>
-        <v>1479150</v>
+      <c r="F22" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="144">
+        <v>10</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="84"/>
@@ -3911,25 +3889,25 @@
       <c r="N22" s="84"/>
       <c r="O22" s="91"/>
       <c r="P22" s="84"/>
-      <c r="Q22" s="142" t="s">
-        <v>122</v>
+      <c r="Q22" s="28" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
       <c r="B23" s="73"/>
-      <c r="C23" s="139" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="90">
-        <f>ROUND(G24*G26/G25,2)</f>
-        <v>328.7</v>
-      </c>
-      <c r="H23" s="84"/>
+      <c r="C23" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="95">
+        <f>G24*G26</f>
+        <v>1479150</v>
+      </c>
+      <c r="H23" s="12"/>
       <c r="I23" s="84"/>
       <c r="J23" s="84"/>
       <c r="K23" s="84"/>
@@ -3939,80 +3917,80 @@
       <c r="O23" s="91"/>
       <c r="P23" s="84"/>
       <c r="Q23" s="142" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="17" thickBot="1">
       <c r="B24" s="73"/>
-      <c r="C24" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="128" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="98">
-        <v>3</v>
+      <c r="C24" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="90">
+        <f>ROUND(G25*G27/G26,2)</f>
+        <v>328.7</v>
       </c>
       <c r="H24" s="84"/>
-      <c r="I24" s="98">
-        <f>Notes!D43</f>
-        <v>3.5</v>
-      </c>
+      <c r="I24" s="84"/>
       <c r="J24" s="84"/>
-      <c r="K24" s="98">
-        <f>Notes!D81</f>
-        <v>3</v>
-      </c>
+      <c r="K24" s="84"/>
       <c r="L24" s="84"/>
       <c r="M24" s="84"/>
       <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
+      <c r="O24" s="91"/>
       <c r="P24" s="84"/>
       <c r="Q24" s="142" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="17" thickBot="1">
       <c r="B25" s="73"/>
-      <c r="C25" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="99">
-        <v>4500</v>
-      </c>
-      <c r="H25" s="88"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="158" t="s">
-        <v>146</v>
+      <c r="C25" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="128" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="98">
+        <v>3</v>
+      </c>
+      <c r="H25" s="84"/>
+      <c r="I25" s="98">
+        <f>Notes!D43</f>
+        <v>3.5</v>
+      </c>
+      <c r="J25" s="84"/>
+      <c r="K25" s="98">
+        <f>Notes!D81</f>
+        <v>3</v>
+      </c>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="142" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="17" thickBot="1">
       <c r="B26" s="73"/>
-      <c r="C26" s="140" t="s">
-        <v>106</v>
+      <c r="C26" s="133" t="s">
+        <v>95</v>
       </c>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
-      <c r="F26" s="133" t="s">
-        <v>98</v>
+      <c r="F26" s="66" t="s">
+        <v>55</v>
       </c>
       <c r="G26" s="99">
-        <f>G25*G9</f>
-        <v>493043.47826086957</v>
+        <v>4500</v>
       </c>
       <c r="H26" s="88"/>
       <c r="I26" s="81"/>
@@ -4023,17 +4001,24 @@
       <c r="N26" s="81"/>
       <c r="O26" s="81"/>
       <c r="P26" s="81"/>
-      <c r="Q26" s="143" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17">
+      <c r="Q26" s="158" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="17" thickBot="1">
       <c r="B27" s="73"/>
-      <c r="C27" s="140"/>
+      <c r="C27" s="140" t="s">
+        <v>104</v>
+      </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="154"/>
+      <c r="F27" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="99">
+        <f>G26*G10</f>
+        <v>493043.47826086957</v>
+      </c>
       <c r="H27" s="88"/>
       <c r="I27" s="81"/>
       <c r="J27" s="81"/>
@@ -4043,8 +4028,8 @@
       <c r="N27" s="81"/>
       <c r="O27" s="81"/>
       <c r="P27" s="81"/>
-      <c r="Q27" s="156" t="s">
-        <v>141</v>
+      <c r="Q27" s="143" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:17">
@@ -4064,13 +4049,33 @@
       <c r="O28" s="81"/>
       <c r="P28" s="81"/>
       <c r="Q28" s="156" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="73"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="156" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q13" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="Q21" r:id="rId2" location="issuecomment-17880519" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="Q14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="Q22" r:id="rId2" location="issuecomment-17880519" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4088,18 +4093,18 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="43" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="43" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="43" customWidth="1"/>
     <col min="10" max="10" width="32" style="44" customWidth="1"/>
-    <col min="11" max="11" width="130.28515625" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="43"/>
+    <col min="11" max="11" width="130.33203125" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4144,7 +4149,7 @@
     <row r="5" spans="2:11">
       <c r="B5" s="53"/>
       <c r="C5" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="54" t="s">
@@ -4154,16 +4159,16 @@
         <v>19</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>16</v>
@@ -4186,27 +4191,27 @@
       <c r="C7" s="56"/>
       <c r="D7" s="61"/>
       <c r="E7" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I7" s="59"/>
       <c r="J7" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="48"/>
       <c r="C8" s="61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="56"/>
@@ -4220,7 +4225,7 @@
     <row r="9" spans="2:11">
       <c r="B9" s="48"/>
       <c r="C9" s="56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="56"/>
@@ -4248,10 +4253,10 @@
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="64">
         <v>2010</v>
@@ -4261,10 +4266,10 @@
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K11" s="60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -4284,7 +4289,7 @@
     <row r="13" spans="2:11">
       <c r="B13" s="48"/>
       <c r="C13" s="56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
@@ -4312,10 +4317,10 @@
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="64">
         <v>2014</v>
@@ -4325,16 +4330,16 @@
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K15" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="48"/>
       <c r="C16" s="61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
@@ -4348,7 +4353,7 @@
     <row r="17" spans="2:11">
       <c r="B17" s="48"/>
       <c r="C17" s="61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
@@ -4375,7 +4380,7 @@
       <c r="C19" s="56"/>
       <c r="D19" s="56"/>
       <c r="E19" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="65">
@@ -4385,13 +4390,13 @@
       <c r="I19" s="56"/>
       <c r="J19" s="62"/>
       <c r="K19" s="60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="48"/>
       <c r="C20" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="56"/>
       <c r="F20" s="56"/>
@@ -4404,7 +4409,7 @@
     <row r="21" spans="2:11">
       <c r="B21" s="48"/>
       <c r="C21" s="61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="56"/>
       <c r="F21" s="56"/>
@@ -4431,7 +4436,7 @@
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
       <c r="E23" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" s="56" t="s">
         <v>10</v>
@@ -4439,21 +4444,21 @@
       <c r="G23" s="65"/>
       <c r="H23" s="65"/>
       <c r="I23" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J23" s="62"/>
       <c r="K23" s="60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="48"/>
       <c r="C24" s="56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="56"/>
       <c r="E24" s="51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="65"/>
@@ -4478,16 +4483,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="141" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="141" customWidth="1"/>
     <col min="2" max="2" width="4" style="141" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="141" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="141"/>
+    <col min="3" max="3" width="25.83203125" style="141" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="141"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
@@ -4513,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4546,7 +4551,7 @@
     <row r="5" spans="2:15">
       <c r="B5" s="150"/>
       <c r="C5" s="151" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="151"/>
       <c r="E5" s="151"/>
@@ -4564,7 +4569,7 @@
     <row r="6" spans="2:15">
       <c r="B6" s="150"/>
       <c r="C6" s="151" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="151"/>
       <c r="E6" s="151"/>
@@ -4790,13 +4795,13 @@
     <row r="20" spans="2:15" ht="17" customHeight="1">
       <c r="B20" s="150"/>
       <c r="C20" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="151">
         <v>120000</v>
       </c>
       <c r="E20" s="151" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" s="151"/>
       <c r="G20" s="151"/>
@@ -4817,7 +4822,7 @@
         <v>120</v>
       </c>
       <c r="E21" s="160" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F21" s="151"/>
       <c r="G21" s="151"/>
@@ -4837,7 +4842,7 @@
         <v>1050</v>
       </c>
       <c r="E22" s="151" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="151"/>
       <c r="G22" s="151"/>
@@ -4901,7 +4906,7 @@
     <row r="26" spans="2:15">
       <c r="B26" s="150"/>
       <c r="C26" s="151" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D26" s="151"/>
       <c r="E26" s="151"/>
@@ -5163,7 +5168,7 @@
         <v>2520000</v>
       </c>
       <c r="E42" s="151" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F42" s="151"/>
       <c r="G42" s="151"/>
@@ -5179,13 +5184,13 @@
     <row r="43" spans="2:15">
       <c r="B43" s="150"/>
       <c r="C43" s="157" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D43" s="151">
         <v>3.5</v>
       </c>
       <c r="E43" s="157" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F43" s="151"/>
       <c r="G43" s="151"/>
@@ -5265,7 +5270,7 @@
     <row r="48" spans="2:15">
       <c r="B48" s="150"/>
       <c r="C48" s="151" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="151"/>
       <c r="E48" s="151"/>
@@ -5283,7 +5288,7 @@
     <row r="49" spans="2:15">
       <c r="B49" s="150"/>
       <c r="C49" s="151" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" s="151"/>
       <c r="E49" s="151"/>
@@ -5385,7 +5390,7 @@
         <v>30</v>
       </c>
       <c r="E55" s="151" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F55" s="151"/>
       <c r="G55" s="151"/>
@@ -5405,7 +5410,7 @@
         <v>30</v>
       </c>
       <c r="E56" s="151" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F56" s="151"/>
       <c r="G56" s="151"/>
@@ -5533,7 +5538,7 @@
     <row r="64" spans="2:15">
       <c r="B64" s="150"/>
       <c r="C64" s="155" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D64" s="151"/>
       <c r="E64" s="151"/>
@@ -5551,7 +5556,7 @@
     <row r="65" spans="2:15">
       <c r="B65" s="150"/>
       <c r="C65" s="155" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D65" s="151"/>
       <c r="E65" s="151"/>
@@ -5601,7 +5606,7 @@
     <row r="68" spans="2:15">
       <c r="B68" s="150"/>
       <c r="C68" s="160" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D68" s="151"/>
       <c r="E68" s="151"/>
@@ -5619,7 +5624,7 @@
     <row r="69" spans="2:15">
       <c r="B69" s="150"/>
       <c r="C69" s="151" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D69" s="151">
         <v>0.46</v>
@@ -5639,7 +5644,7 @@
     <row r="70" spans="2:15">
       <c r="B70" s="150"/>
       <c r="C70" s="151" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D70" s="151">
         <v>0.42</v>
@@ -5675,14 +5680,14 @@
     <row r="72" spans="2:15">
       <c r="B72" s="150"/>
       <c r="C72" s="160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72" s="151">
         <f>(D21/D69)*D70</f>
         <v>109.56521739130434</v>
       </c>
       <c r="E72" s="160" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F72" s="151"/>
       <c r="G72" s="151"/>
@@ -5810,13 +5815,13 @@
     <row r="80" spans="2:15">
       <c r="B80" s="150"/>
       <c r="C80" s="155" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D80" s="151">
         <v>1000</v>
       </c>
       <c r="E80" s="155" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F80" s="151"/>
       <c r="G80" s="151"/>
@@ -5832,13 +5837,13 @@
     <row r="81" spans="2:15">
       <c r="B81" s="150"/>
       <c r="C81" s="155" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D81" s="155">
         <v>3</v>
       </c>
       <c r="E81" s="155" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F81" s="151"/>
       <c r="G81" s="151"/>
